--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/23 MATERIALIDAD.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/23 MATERIALIDAD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F3994-58AE-4486-9848-50F7D58A6903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D65592-05B9-469E-96D2-FB823392D7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,8 +821,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,11 +1776,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:E7"/>
@@ -1794,6 +1789,11 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
